--- a/excel/Semi-implicit_Euler_n=10.xlsx
+++ b/excel/Semi-implicit_Euler_n=10.xlsx
@@ -8,20 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDDFDB-393F-4C79-9ECC-574C67C51F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C889FB-F3E3-4B19-8516-3C0AC21304E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1230" windowWidth="18285" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+  <si>
+    <t>Inf</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,12 +356,12 @@
   <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -366,7 +375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -379,14 +388,14 @@
       <c r="D2">
         <v>3.5324501317711587E-2</v>
       </c>
-      <c r="E2">
-        <v>Inf</v>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>-0.3979400086720376</v>
       </c>
     </row>
-    <row r="3" spans="1:6" dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -399,14 +408,14 @@
       <c r="D3">
         <v>9.1989654216529798E-2</v>
       </c>
-      <c r="E3">
-        <v>Inf</v>
+      <c r="E3" t="s">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.6989700043360187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" dyDescent="0.2">
+        <v>-0.69897000433601875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -419,14 +428,14 @@
       <c r="D4">
         <v>0.15209717962098662</v>
       </c>
-      <c r="E4">
-        <v>Inf</v>
+      <c r="E4" t="s">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -439,14 +448,14 @@
       <c r="D5">
         <v>0.19081043967284203</v>
       </c>
-      <c r="E5">
-        <v>Inf</v>
+      <c r="E5" t="s">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>-1.3010299956639813</v>
       </c>
     </row>
-    <row r="6" spans="1:6" dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -460,7 +469,7 @@
         <v>0.19159975329812307</v>
       </c>
     </row>
-    <row r="7" spans="1:6" dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -474,7 +483,7 @@
         <v>0.15482890892028345</v>
       </c>
     </row>
-    <row r="8" spans="1:6" dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -488,7 +497,7 @@
         <v>9.5275866119243657E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -502,7 +511,7 @@
         <v>3.1551282271195635E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -516,7 +525,7 @@
         <v>-2.4776286793116054E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -530,7 +539,7 @@
         <v>-4.6467747806217652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -544,7 +553,7 @@
         <v>-4.1073175676602958E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -558,7 +567,7 @@
         <v>-3.0790604034585001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -572,7 +581,7 @@
         <v>-2.5546831356019428E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -586,7 +595,7 @@
         <v>-2.9604928248155971E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -600,7 +609,7 @@
         <v>-3.8996037707223263E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -614,7 +623,7 @@
         <v>-4.5734655929953738E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -628,7 +637,7 @@
         <v>-4.454883555320166E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -642,7 +651,7 @@
         <v>-3.6769097631450753E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -656,7 +665,7 @@
         <v>-2.8794608100818353E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -670,7 +679,7 @@
         <v>-2.6821331093244805E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -684,7 +693,7 @@
         <v>-3.2109697335856335E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -698,7 +707,7 @@
         <v>-4.0302633080548267E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -712,7 +721,7 @@
         <v>-4.5029790746787035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -726,7 +735,7 @@
         <v>-4.2831029951996169E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -740,7 +749,7 @@
         <v>-3.5635968140959484E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -754,7 +763,7 @@
         <v>-2.9071745370117585E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -768,7 +777,7 @@
         <v>-2.8070107850934112E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -782,7 +791,7 @@
         <v>-3.3185176892339463E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -796,7 +805,7 @@
         <v>-4.0347126625568053E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -810,7 +819,7 @@
         <v>-4.409690991939208E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -824,7 +833,7 @@
         <v>-4.1745476745051691E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -838,7 +847,7 @@
         <v>-3.5303257331855131E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -852,7 +861,7 @@
         <v>-2.9800956852806482E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -866,7 +875,7 @@
         <v>-2.9371666411596276E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -880,7 +889,7 @@
         <v>-3.4113240655552213E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -894,7 +903,7 @@
         <v>-4.0100651039519319E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -908,7 +917,7 @@
         <v>-4.2504393906708349E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -922,7 +931,7 @@
         <v>-3.9419253135441923E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -936,7 +945,7 @@
         <v>-3.3463699736258179E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -950,7 +959,7 @@
         <v>-2.9862770026147456E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.39999999999925662</v>
       </c>
@@ -964,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.39999999999925662</v>
       </c>
@@ -978,7 +987,7 @@
         <v>2.2427104443407703E-17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.39999999999925662</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>-6.9945846388593854E-17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.39999999999925662</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>-1.4479111535860764E-16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.39999999999925662</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>2.5376884143815416E-16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.39999999999925662</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>9.8683592733799718E-16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.39999999999925662</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>5.2571547874713911E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.39999999999925662</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>-2.6939593114095708E-15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.39999999999925662</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>-6.7728302051356841E-15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.39999999999925662</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>-4.6073866592005604E-15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.39999999999925662</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>1.09906776099127E-14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.39999999999925662</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>3.5415472104665002E-14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.39999999999925662</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>4.3865042488090769E-14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.39999999999925662</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>9.0679933952860018E-16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.39999999999925662</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>-1.0669942736224114E-13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.39999999999925662</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>-2.3030730099708859E-13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.39999999999925662</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>-2.491695421754684E-13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.39999999999925662</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>-2.3935018613689883E-14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.39999999999925662</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>4.8718435969152779E-13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.39999999999925662</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>1.1066993577933463E-12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.39999999999925662</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>1.4085592758874265E-12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.39999999999925662</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>8.6424165025977087E-13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.39999999999925662</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>-8.3893237067028282E-13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.39999999999925662</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>-3.435685829861348E-12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.39999999999925662</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>-5.8970635896989429E-12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.39999999999925662</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>-6.6238757599949407E-12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.39999999999925662</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>-4.0683690621440533E-12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.39999999999925662</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>2.4030400288299236E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.39999999999925662</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>1.1790797624352114E-11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.39999999999925662</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>2.1303536972343397E-11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.39999999999925662</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>2.6986181910392909E-11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.39999999999925662</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>2.5012992030143532E-11</v>
       </c>
     </row>
-    <row r="74" spans="1:6" dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.39999999999925662</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>1.3181745887208146E-11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.39999999999925662</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>-8.006621198479081E-12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.39999999999925662</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>-3.5161261866010657E-11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.39999999999925662</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>-6.2809164164105004E-11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.39999999999925662</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>-8.4864494363312085E-11</v>
       </c>
     </row>
-    <row r="79" spans="1:6" dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.39999999999925662</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>-9.6152931388206697E-11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.39999999999925662</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>-9.3407148847169276E-11</v>
       </c>
     </row>
-    <row r="81" spans="1:6" dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.39999999999925662</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>-7.5445783905798725E-11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.39999999999925662</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>-4.2650548731959234E-11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.79999999999822768</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.79999999999822768</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>-1.3639604246444146E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.79999999999822768</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>-3.2078478765091137E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.79999999999822768</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>-3.4481420935659951E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.79999999999822768</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>1.0379774155960114E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.79999999999822768</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>6.4364236842682998E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.79999999999822768</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>0.1342268238106428</v>
       </c>
     </row>
-    <row r="90" spans="1:6" dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.79999999999822768</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>0.19068961379332142</v>
       </c>
     </row>
-    <row r="91" spans="1:6" dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.79999999999822768</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>0.21561923964259064</v>
       </c>
     </row>
-    <row r="92" spans="1:6" dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.79999999999822768</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>0.20211170436205589</v>
       </c>
     </row>
-    <row r="93" spans="1:6" dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.79999999999822768</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>0.15015771902342367</v>
       </c>
     </row>
-    <row r="94" spans="1:6" dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.79999999999822768</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>7.6073058071505772E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.79999999999822768</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>5.252166522680235E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.79999999999822768</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>-3.9564338597431137E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.79999999999822768</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>-4.7242478485930328E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.79999999999822768</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>-3.5289479852460004E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.79999999999822768</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>-2.7251504496121792E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.79999999999822768</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>-2.8131224551036116E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.79999999999822768</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>-3.6042175570112911E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.79999999999822768</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>-4.4070034033950045E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.79999999999822768</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>-4.5823752176615162E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.79999999999822768</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>-4.018009172520054E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.79999999999822768</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>-3.1753690165640447E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.79999999999822768</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>-2.7052991169884244E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.79999999999822768</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>-2.9462829254823797E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.79999999999822768</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>-3.6852194110796543E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.79999999999822768</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>-4.343596562507035E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.79999999999822768</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>-4.4281149231654715E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.79999999999822768</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>-3.8972060234854333E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.79999999999822768</v>
       </c>
@@ -1944,7 +1953,7 @@
         <v>-3.1739291107858558E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.79999999999822768</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>-2.8102916540518885E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.79999999999822768</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>-3.067122739240824E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.79999999999822768</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>-3.7268267214753181E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.79999999999822768</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>-4.272234787489182E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.79999999999822768</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>-4.2875930092653558E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.79999999999822768</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>-3.775188182049849E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.79999999999822768</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>-3.1500651705180904E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.79999999999822768</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>-2.919175687303055E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.79999999999822768</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>-3.2868390430143446E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.79999999999822768</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>-3.9829275728594848E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.79999999999822768</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>-4.4468004646035286E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.1999999999970601</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.1999999999970601</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>3.6547209405202357E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.1999999999970601</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>6.2215916148563458E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.1999999999970601</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>-3.2031289049545743E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.1999999999970601</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>-1.9753135480270408E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.1999999999970601</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>-4.5359482639146187E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.1999999999970601</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>-6.0099085437472541E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.1999999999970601</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>-4.4147370563536639E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.1999999999970601</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>1.4440073491941194E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1.1999999999970601</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>9.7001516571390889E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1.1999999999970601</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>0.17421333472671463</v>
       </c>
     </row>
-    <row r="135" spans="1:6" dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.1999999999970601</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>0.22605808740922539</v>
       </c>
     </row>
-    <row r="136" spans="1:6" dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.1999999999970601</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>0.23609875520021753</v>
       </c>
     </row>
-    <row r="137" spans="1:6" dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.1999999999970601</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>0.20075574267546842</v>
       </c>
     </row>
-    <row r="138" spans="1:6" dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.1999999999970601</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>0.13238948052921645</v>
       </c>
     </row>
-    <row r="139" spans="1:6" dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.1999999999970601</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>5.4272972897475125E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.1999999999970601</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>-9.5300415036958519E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.1999999999970601</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>-4.3461596481818354E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.1999999999970601</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>-4.3976447442297673E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.1999999999970601</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>-3.1887173230724097E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.1999999999970601</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>-2.8596390254601367E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.1999999999970601</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>-3.4047309777534229E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.1999999999970601</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>-4.2398433104566258E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.1999999999970601</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>-4.6510156450055073E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.1999999999970601</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>-4.3143386755255309E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.1999999999970601</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>-3.499809531671505E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.1999999999970601</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>-2.8292966418301368E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.1999999999970601</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>-2.7914396600792535E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.1999999999970601</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>-3.3819537881836337E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.1999999999970601</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>-4.1270241855995149E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.1999999999970601</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>-4.4549578880656471E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.1999999999970601</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>-4.1276636591249138E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.1999999999970601</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>-3.4109436615718081E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.1999999999970601</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>-2.8652714174130955E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.1999999999970601</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>-2.9203341193100751E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.1999999999970601</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>-3.5502305768798204E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.1999999999970601</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>-4.2856080120881934E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.1999999999970601</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>-4.5507466263372987E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.1999999999970601</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>-4.0816252396322805E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.1999999999970601</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>-3.1295465943663836E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.1999999999970601</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>-2.3121411659474789E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.599999999995892</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.599999999995892</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>-9.7927951563459448E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.599999999995892</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>-1.0310098105428826E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:6" dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.599999999995892</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>2.234176338123282E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.599999999995892</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>8.2223919204203483E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.599999999995892</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>1.1587463360995299E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.599999999995892</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>4.5937177430767119E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.599999999995892</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>-1.7044233959674707E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.599999999995892</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>-4.8574323665935483E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.599999999995892</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>-7.5216690032919822E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1.599999999995892</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>-7.8031359740535849E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.599999999995892</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>-4.140334289771537E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.599999999995892</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>3.88103778536419E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.599999999995892</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>0.13609386178880264</v>
       </c>
     </row>
-    <row r="179" spans="1:6" dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.599999999995892</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>0.21396374316777414</v>
       </c>
     </row>
-    <row r="180" spans="1:6" dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.599999999995892</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>0.25234179121445555</v>
       </c>
     </row>
-    <row r="181" spans="1:6" dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.599999999995892</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>0.24189522059102492</v>
       </c>
     </row>
-    <row r="182" spans="1:6" dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.599999999995892</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>0.18906306699093983</v>
       </c>
     </row>
-    <row r="183" spans="1:6" dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.599999999995892</v>
       </c>
@@ -2938,7 +2947,7 @@
         <v>0.1133927126025715</v>
       </c>
     </row>
-    <row r="184" spans="1:6" dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.599999999995892</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>3.8876782004445776E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.599999999995892</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>-1.5641482788004812E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:6" dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.599999999995892</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>-4.1781737055751611E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:6" dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.599999999995892</v>
       </c>
@@ -2994,7 +3003,7 @@
         <v>-4.0512929368916373E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.599999999995892</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>-3.2197981814840348E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1.599999999995892</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>-3.4022966872884641E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.599999999995892</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>-4.143214561626074E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1.599999999995892</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>-4.6994323450956554E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1.599999999995892</v>
       </c>
@@ -3064,7 +3073,7 @@
         <v>-4.5680486459576342E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1.599999999995892</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>-3.8185893611058175E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1.599999999995892</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>-3.000230940113513E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:6" dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.599999999995892</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>-2.7108217228379528E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1.599999999995892</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>-3.1510547895444718E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.599999999995892</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>-3.9821868626015333E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.599999999995892</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>-4.5760961861534333E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1.599999999995892</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>-4.4662861217828143E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.599999999995892</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>-3.6773581683793188E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1.599999999995892</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>-2.7112564374893178E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1.599999999995892</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>-2.2156660560507468E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1.599999999995892</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>-2.571068523498854E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1.599999999995892</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>-3.6653712587701559E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1.599999999995892</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>-4.9741488808438539E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1.999999999994768</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.999999999994768</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>2.6239712201814113E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:6" dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1.999999999994768</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>1.0582653750588529E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1.999999999994768</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>-1.0635954765549022E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1.999999999994768</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>-2.4288150319653045E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:6" dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1.999999999994768</v>
       </c>
@@ -3330,7 +3339,7 @@
         <v>-1.612958833874648E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1.999999999994768</v>
       </c>
@@ -3344,7 +3353,7 @@
         <v>3.4661581643578537E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:6" dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1.999999999994768</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>1.174814579478977E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:6" dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1.999999999994768</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>1.7596422439196822E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1.999999999994768</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>1.2785040698361949E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1.999999999994768</v>
       </c>
@@ -3400,7 +3409,7 @@
         <v>-8.1962175597802001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:6" dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1.999999999994768</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>-4.3211967345184704E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:6" dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1.999999999994768</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>-8.0256576446462308E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1.999999999994768</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>-0.10032875439275532</v>
       </c>
     </row>
-    <row r="220" spans="1:6" dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1.999999999994768</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>-8.4985294268303799E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:6" dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1.999999999994768</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>-2.5164127497319125E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1.999999999994768</v>
       </c>
@@ -3484,7 +3493,7 @@
         <v>7.3477050449997638E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1.999999999994768</v>
       </c>
@@ -3498,7 +3507,7 @@
         <v>0.17643785440061124</v>
       </c>
     </row>
-    <row r="224" spans="1:6" dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1.999999999994768</v>
       </c>
@@ -3512,7 +3521,7 @@
         <v>0.24540355396232449</v>
       </c>
     </row>
-    <row r="225" spans="1:6" dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1.999999999994768</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>0.26554802307280245</v>
       </c>
     </row>
-    <row r="226" spans="1:6" dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1.999999999994768</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>0.23678999627108277</v>
       </c>
     </row>
-    <row r="227" spans="1:6" dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1.999999999994768</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>0.17360897885801113</v>
       </c>
     </row>
-    <row r="228" spans="1:6" dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1.999999999994768</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>9.8215592169876575E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1.999999999994768</v>
       </c>
@@ -3582,7 +3591,7 @@
         <v>3.1179607771231965E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:6" dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1.999999999994768</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>-1.5265677839163994E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1.999999999994768</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>-3.8128134976524786E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:6" dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1.999999999994768</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>-3.9495469049991683E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1.999999999994768</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>-3.6636029332934528E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:6" dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1.999999999994768</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>-4.2161946826283159E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:6" dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1.999999999994768</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>-4.8751903629386972E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1.999999999994768</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>-4.961183173955086E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1.999999999994768</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>-4.2817713865880958E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1.999999999994768</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>-3.2184363924199544E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1.999999999994768</v>
       </c>
@@ -3722,7 +3731,7 @@
         <v>-2.432322016170918E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:6" dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1.999999999994768</v>
       </c>
@@ -3736,7 +3745,7 @@
         <v>-2.4148756435267482E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:6" dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1.999999999994768</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>-3.190056141060138E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1.999999999994768</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>-4.33803966384253E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1.999999999994768</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>-5.2746421601425397E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1.999999999994768</v>
       </c>
@@ -3792,7 +3801,7 @@
         <v>-5.5643045147536707E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:6" dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1.999999999994768</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>-5.0702453219133581E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1.999999999994768</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>-3.9095068895456442E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2.3999999999957802</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.3999999999957802</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>-7.0308972438019735E-5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2.3999999999957802</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>1.7310135975045834E-5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2.3999999999957802</v>
       </c>
@@ -3876,7 +3885,7 @@
         <v>3.7991123791294241E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2.3999999999957802</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>5.8065252005854383E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:6" dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2.3999999999957802</v>
       </c>
@@ -3904,7 +3913,7 @@
         <v>-1.9701213089498755E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:6" dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2.3999999999957802</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>-2.1877645871976044E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:6" dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2.3999999999957802</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>-4.0431796772891632E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2.3999999999957802</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>-2.9905022798224607E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:6" dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2.3999999999957802</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>3.2789587600912493E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:6" dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.3999999999957802</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>1.3834799458573476E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:6" dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2.3999999999957802</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>2.3159372779665496E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2.3999999999957802</v>
       </c>
@@ -4002,7 +4011,7 @@
         <v>2.2581166170481063E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2.3999999999957802</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>4.6785383734911853E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:6" dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2.3999999999957802</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>-3.1228014599329425E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2.3999999999957802</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>-7.5699441452548755E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2.3999999999957802</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>-0.11062224832747178</v>
       </c>
     </row>
-    <row r="264" spans="1:6" dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2.3999999999957802</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>-0.11578362954668658</v>
       </c>
     </row>
-    <row r="265" spans="1:6" dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2.3999999999957802</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>-7.7826740220616433E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:6" dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2.3999999999957802</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>3.0015866516474032E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:6" dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2.3999999999957802</v>
       </c>
@@ -4114,7 +4123,7 @@
         <v>0.11216115842079442</v>
       </c>
     </row>
-    <row r="268" spans="1:6" dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2.3999999999957802</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>0.21132710387745246</v>
       </c>
     </row>
-    <row r="269" spans="1:6" dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2.3999999999957802</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>0.26530624289375837</v>
       </c>
     </row>
-    <row r="270" spans="1:6" dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2.3999999999957802</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>0.26735539071766168</v>
       </c>
     </row>
-    <row r="271" spans="1:6" dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2.3999999999957802</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>0.22580544239856568</v>
       </c>
     </row>
-    <row r="272" spans="1:6" dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2.3999999999957802</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>0.15941969521561733</v>
       </c>
     </row>
-    <row r="273" spans="1:6" dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2.3999999999957802</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>8.8899633243084197E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2.3999999999957802</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>2.939778430477058E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2.3999999999957802</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>-1.2262452183471551E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2.3999999999957802</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>-3.524144280327457E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2.3999999999957802</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>-3.9962344205812128E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2.3999999999957802</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>-4.0366398711042084E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2.3999999999957802</v>
       </c>
@@ -4282,7 +4291,7 @@
         <v>-4.70589610028046E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2.3999999999957802</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>-5.3476964240560476E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2.3999999999957802</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>-5.5157248380458879E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2.3999999999957802</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>-5.1244610376601218E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:6" dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2.3999999999957802</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>-4.3272990102396935E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2.3999999999957802</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>-3.2910782843103337E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2.3999999999957802</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>-2.1006727837675432E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2.3999999999957802</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>-8.8492780935314208E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:6" dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2.3999999999957802</v>
       </c>
@@ -4394,7 +4403,7 @@
         <v>-2.5103065345177811E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2.7999999999968348</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2.7999999999968348</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>1.8838767734588198E-5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2.7999999999968348</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>-1.6871893419664487E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2.7999999999968348</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>-1.1928370957605896E-4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.7999999999968348</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>-1.0697182844945375E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2.7999999999968348</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>2.5147856887536768E-4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2.7999999999968348</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>8.3622338626000963E-4</v>
       </c>
     </row>
-    <row r="295" spans="1:6" dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2.7999999999968348</v>
       </c>
@@ -4506,7 +4515,7 @@
         <v>9.3096462849431253E-4</v>
       </c>
     </row>
-    <row r="296" spans="1:6" dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2.7999999999968348</v>
       </c>
@@ -4520,7 +4529,7 @@
         <v>-3.8590192677088141E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2.7999999999968348</v>
       </c>
@@ -4534,7 +4543,7 @@
         <v>-3.2134227645596015E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2.7999999999968348</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>-5.8864480642349237E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2.7999999999968348</v>
       </c>
@@ -4562,7 +4571,7 @@
         <v>-5.2570115300758311E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2.7999999999968348</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>1.4670073780207226E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2.7999999999968348</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>1.4034316853762944E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2.7999999999968348</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>2.7332371104811105E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:6" dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2.7999999999968348</v>
       </c>
@@ -4618,7 +4627,7 @@
         <v>3.221337899413762E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:6" dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2.7999999999968348</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>1.9497946194775052E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2.7999999999968348</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>-1.4329699971924313E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2.7999999999968348</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>-6.2798235164883476E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2.7999999999968348</v>
       </c>
@@ -4674,7 +4683,7 @@
         <v>-0.10949498991805631</v>
       </c>
     </row>
-    <row r="308" spans="1:6" dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2.7999999999968348</v>
       </c>
@@ -4688,7 +4697,7 @@
         <v>-0.13345546167239802</v>
       </c>
     </row>
-    <row r="309" spans="1:6" dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2.7999999999968348</v>
       </c>
@@ -4702,7 +4711,7 @@
         <v>-0.11785408597649676</v>
       </c>
     </row>
-    <row r="310" spans="1:6" dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2.7999999999968348</v>
       </c>
@@ -4716,7 +4725,7 @@
         <v>-5.7732104360527878E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:6" dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2.7999999999968348</v>
       </c>
@@ -4730,7 +4739,7 @@
         <v>3.7410430854833435E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:6" dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2.7999999999968348</v>
       </c>
@@ -4744,7 +4753,7 @@
         <v>0.14773892941388753</v>
       </c>
     </row>
-    <row r="313" spans="1:6" dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2.7999999999968348</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>0.23624122310590637</v>
       </c>
     </row>
-    <row r="314" spans="1:6" dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2.7999999999968348</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>0.274513289528869</v>
       </c>
     </row>
-    <row r="315" spans="1:6" dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2.7999999999968348</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>0.26385264715956996</v>
       </c>
     </row>
-    <row r="316" spans="1:6" dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2.7999999999968348</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>0.21719324954420077</v>
       </c>
     </row>
-    <row r="317" spans="1:6" dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2.7999999999968348</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>0.1522501200627322</v>
       </c>
     </row>
-    <row r="318" spans="1:6" dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2.7999999999968348</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>8.463926432646246E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:6" dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2.7999999999968348</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>2.4679250452896762E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:6" dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2.7999999999968348</v>
       </c>
@@ -4856,7 +4865,7 @@
         <v>-2.1383158315351092E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2.7999999999968348</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>-4.8154447664270683E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2.7999999999968348</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>-4.9470144316575038E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2.7999999999968348</v>
       </c>
@@ -4898,7 +4907,7 @@
         <v>-3.5891217612491033E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:6" dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2.7999999999968348</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>-2.1808649088515764E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:6" dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2.7999999999968348</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>-1.1393388340530497E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2.7999999999968348</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>-1.2984261589869317E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:6" dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2.7999999999968348</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>-3.3406123416832023E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2.7999999999968348</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>-7.1161726091110045E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:6" dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3.1999999999978899</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3.1999999999978899</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>-5.0460985003365227E-6</v>
       </c>
     </row>
-    <row r="331" spans="1:6" dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3.1999999999978899</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>7.7902103010056086E-6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3.1999999999978899</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>3.4515695504251675E-5</v>
       </c>
     </row>
-    <row r="333" spans="1:6" dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3.1999999999978899</v>
       </c>
@@ -5038,7 +5047,7 @@
         <v>9.0790935800217891E-6</v>
       </c>
     </row>
-    <row r="334" spans="1:6" dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3.1999999999978899</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>-1.2112741358798028E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:6" dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3.1999999999978899</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>-2.5133505148229227E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:6" dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3.1999999999978899</v>
       </c>
@@ -5080,7 +5089,7 @@
         <v>-9.8695659178352923E-5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3.1999999999978899</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>5.408557130309428E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:6" dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3.1999999999978899</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>1.3770495554221241E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:6" dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3.1999999999978899</v>
       </c>
@@ -5122,7 +5131,7 @@
         <v>1.4649517785072434E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3.1999999999978899</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>-2.734831943258108E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:6" dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3.1999999999978899</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>-3.9625004906376753E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3.1999999999978899</v>
       </c>
@@ -5164,7 +5173,7 @@
         <v>-7.818514773331826E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:6" dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3.1999999999978899</v>
       </c>
@@ -5178,7 +5187,7 @@
         <v>-8.2968117716218665E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3.1999999999978899</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>-1.8631376601604228E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:6" dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3.1999999999978899</v>
       </c>
@@ -5206,7 +5215,7 @@
         <v>1.2161677815165656E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:6" dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3.1999999999978899</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>2.9327747516199959E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3.1999999999978899</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>4.026542199461098E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3.1999999999978899</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>3.4257719206423808E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3.1999999999978899</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>5.0671216608534145E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:6" dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3.1999999999978899</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>-4.3904232818169006E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:6" dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3.1999999999978899</v>
       </c>
@@ -5290,7 +5299,7 @@
         <v>-9.8388254713217854E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3.1999999999978899</v>
       </c>
@@ -5304,7 +5313,7 @@
         <v>-0.1375419255172019</v>
       </c>
     </row>
-    <row r="353" spans="1:6" dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3.1999999999978899</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>-0.14232805801435586</v>
       </c>
     </row>
-    <row r="354" spans="1:6" dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3.1999999999978899</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>-0.10393898016450864</v>
       </c>
     </row>
-    <row r="355" spans="1:6" dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3.1999999999978899</v>
       </c>
@@ -5346,7 +5355,7 @@
         <v>-2.7722073672544811E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3.1999999999978899</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>6.9720438008276112E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:6" dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3.1999999999978899</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>0.16877176233509056</v>
       </c>
     </row>
-    <row r="358" spans="1:6" dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3.1999999999978899</v>
       </c>
@@ -5388,7 +5397,7 @@
         <v>0.24016286301642203</v>
       </c>
     </row>
-    <row r="359" spans="1:6" dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3.1999999999978899</v>
       </c>
@@ -5402,7 +5411,7 @@
         <v>0.26662472203248772</v>
       </c>
     </row>
-    <row r="360" spans="1:6" dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3.1999999999978899</v>
       </c>
@@ -5416,7 +5425,7 @@
         <v>0.25759526952803546</v>
       </c>
     </row>
-    <row r="361" spans="1:6" dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3.1999999999978899</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>0.22603973699276056</v>
       </c>
     </row>
-    <row r="362" spans="1:6" dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3.1999999999978899</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>0.18074396209971078</v>
       </c>
     </row>
-    <row r="363" spans="1:6" dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3.1999999999978899</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>0.12358080330957716</v>
       </c>
     </row>
-    <row r="364" spans="1:6" dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.1999999999978899</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>5.3472900348081942E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3.1999999999978899</v>
       </c>
@@ -5486,7 +5495,7 @@
         <v>-2.5844599441234184E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3.1999999999978899</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>-0.10003531483044248</v>
       </c>
     </row>
-    <row r="367" spans="1:6" dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3.1999999999978899</v>
       </c>
@@ -5514,7 +5523,7 @@
         <v>-0.14526189604229289</v>
       </c>
     </row>
-    <row r="368" spans="1:6" dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3.1999999999978899</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>-0.1524512607181272</v>
       </c>
     </row>
-    <row r="369" spans="1:6" dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>3.1999999999978899</v>
       </c>
@@ -5542,7 +5551,7 @@
         <v>-0.12217956919219974</v>
       </c>
     </row>
-    <row r="370" spans="1:6" dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3.5999999999989449</v>
       </c>
@@ -5556,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3.5999999999989449</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>1.3456262667579019E-6</v>
       </c>
     </row>
-    <row r="372" spans="1:6" dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3.5999999999989449</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>-2.9352261586606362E-6</v>
       </c>
     </row>
-    <row r="373" spans="1:6" dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3.5999999999989449</v>
       </c>
@@ -5598,7 +5607,7 @@
         <v>-9.3419567571092827E-6</v>
       </c>
     </row>
-    <row r="374" spans="1:6" dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3.5999999999989449</v>
       </c>
@@ -5612,7 +5621,7 @@
         <v>4.0545673686101902E-6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3.5999999999989449</v>
       </c>
@@ -5626,7 +5635,7 @@
         <v>4.4988903181109163E-5</v>
       </c>
     </row>
-    <row r="376" spans="1:6" dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3.5999999999989449</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>6.1654204050126015E-5</v>
       </c>
     </row>
-    <row r="377" spans="1:6" dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3.5999999999989449</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>-3.785965574827288E-5</v>
       </c>
     </row>
-    <row r="378" spans="1:6" dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3.5999999999989449</v>
       </c>
@@ -5668,7 +5677,7 @@
         <v>-2.6447752850722789E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:6" dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3.5999999999989449</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>-4.1654507996927213E-4</v>
       </c>
     </row>
-    <row r="380" spans="1:6" dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3.5999999999989449</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>-1.2396680057276182E-4</v>
       </c>
     </row>
-    <row r="381" spans="1:6" dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3.5999999999989449</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>8.1887902049639441E-4</v>
       </c>
     </row>
-    <row r="382" spans="1:6" dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3.5999999999989449</v>
       </c>
@@ -5724,7 +5733,7 @@
         <v>2.0102844662030959E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:6" dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.5999999999989449</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>2.3022470993329172E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:6" dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3.5999999999989449</v>
       </c>
@@ -5752,7 +5761,7 @@
         <v>3.4269338188694636E-4</v>
       </c>
     </row>
-    <row r="385" spans="1:6" dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3.5999999999989449</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>-4.2469404017026931E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:6" dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3.5999999999989449</v>
       </c>
@@ -5780,7 +5789,7 @@
         <v>-9.7199312348410574E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:6" dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3.5999999999989449</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>-1.210022835484576E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3.5999999999989449</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>-6.8330893176180209E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:6" dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3.5999999999989449</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>8.1329651696168057E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:6" dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3.5999999999989449</v>
       </c>
@@ -5836,7 +5845,7 @@
         <v>2.9390267002406673E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3.5999999999989449</v>
       </c>
@@ -5850,7 +5859,7 @@
         <v>4.7383959872100687E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3.5999999999989449</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>4.9409593810276736E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.5999999999989449</v>
       </c>
@@ -5878,7 +5887,7 @@
         <v>2.5763519362997658E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3.5999999999989449</v>
       </c>
@@ -5892,7 +5901,7 @@
         <v>-2.3691996186375408E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3.5999999999989449</v>
       </c>
@@ -5906,7 +5915,7 @@
         <v>-8.6337699515274022E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3.5999999999989449</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>-0.13968762497950607</v>
       </c>
     </row>
-    <row r="397" spans="1:6" dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3.5999999999989449</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>-0.16006683248847114</v>
       </c>
     </row>
-    <row r="398" spans="1:6" dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3.5999999999989449</v>
       </c>
@@ -5948,7 +5957,7 @@
         <v>-0.13336311411055277</v>
       </c>
     </row>
-    <row r="399" spans="1:6" dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3.5999999999989449</v>
       </c>
@@ -5962,7 +5971,7 @@
         <v>-6.2342520316036418E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3.5999999999989449</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>3.380422299819115E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3.5999999999989449</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>0.12816950211551587</v>
       </c>
     </row>
-    <row r="402" spans="1:6" dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3.5999999999989449</v>
       </c>
@@ -6004,7 +6013,7 @@
         <v>0.19903888243179507</v>
       </c>
     </row>
-    <row r="403" spans="1:6" dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3.5999999999989449</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>0.22475924716919204</v>
       </c>
     </row>
-    <row r="404" spans="1:6" dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3.5999999999989449</v>
       </c>
@@ -6032,7 +6041,7 @@
         <v>0.20316238303802572</v>
       </c>
     </row>
-    <row r="405" spans="1:6" dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3.5999999999989449</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>0.16130881866240354</v>
       </c>
     </row>
-    <row r="406" spans="1:6" dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3.5999999999989449</v>
       </c>
@@ -6060,7 +6069,7 @@
         <v>0.12654136879824129</v>
       </c>
     </row>
-    <row r="407" spans="1:6" dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3.5999999999989449</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>0.11413594322238485</v>
       </c>
     </row>
-    <row r="408" spans="1:6" dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3.5999999999989449</v>
       </c>
@@ -6088,7 +6097,7 @@
         <v>0.12228680517926138</v>
       </c>
     </row>
-    <row r="409" spans="1:6" dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3.5999999999989449</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v>0.13651989550990484</v>
       </c>
     </row>
-    <row r="410" spans="1:6" dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3.5999999999989449</v>
       </c>
@@ -6116,7 +6125,7 @@
         <v>0.14035854272666748</v>
       </c>
     </row>
-    <row r="411" spans="1:6" dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4</v>
       </c>
@@ -6130,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4</v>
       </c>
@@ -6144,7 +6153,7 @@
         <v>-3.3640656669508235E-7</v>
       </c>
     </row>
-    <row r="413" spans="1:6" dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4</v>
       </c>
@@ -6158,7 +6167,7 @@
         <v>9.230352334476314E-7</v>
       </c>
     </row>
-    <row r="414" spans="1:6" dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -6172,7 +6181,7 @@
         <v>2.2657000181934319E-6</v>
       </c>
     </row>
-    <row r="415" spans="1:6" dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4</v>
       </c>
@@ -6186,7 +6195,7 @@
         <v>-2.643076077618127E-6</v>
       </c>
     </row>
-    <row r="416" spans="1:6" dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>-1.3560612639828413E-5</v>
       </c>
     </row>
-    <row r="417" spans="1:6" dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>-1.1650565922615953E-5</v>
       </c>
     </row>
-    <row r="418" spans="1:6" dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4</v>
       </c>
@@ -6228,7 +6237,7 @@
         <v>2.7268833702337178E-5</v>
       </c>
     </row>
-    <row r="419" spans="1:6" dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4</v>
       </c>
@@ -6242,7 +6251,7 @@
         <v>8.9301987521848465E-5</v>
       </c>
     </row>
-    <row r="420" spans="1:6" dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>4</v>
       </c>
@@ -6256,7 +6265,7 @@
         <v>9.1158670057255975E-5</v>
       </c>
     </row>
-    <row r="421" spans="1:6" dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>4</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>-7.4289457008323877E-5</v>
       </c>
     </row>
-    <row r="422" spans="1:6" dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4</v>
       </c>
@@ -6284,7 +6293,7 @@
         <v>-3.9999708385788946E-4</v>
       </c>
     </row>
-    <row r="423" spans="1:6" dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>-6.3607525546543683E-4</v>
       </c>
     </row>
-    <row r="424" spans="1:6" dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>-3.3956444480711339E-4</v>
       </c>
     </row>
-    <row r="425" spans="1:6" dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>4</v>
       </c>
@@ -6326,7 +6335,7 @@
         <v>7.9932945247372569E-4</v>
       </c>
     </row>
-    <row r="426" spans="1:6" dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4</v>
       </c>
@@ -6340,7 +6349,7 @@
         <v>2.4779965984981786E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:6" dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>4</v>
       </c>
@@ -6354,7 +6363,7 @@
         <v>3.51472798198855E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:6" dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -6368,7 +6377,7 @@
         <v>2.2080308872302035E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:6" dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>-2.5589274465242545E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:6" dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>4</v>
       </c>
@@ -6396,7 +6405,7 @@
         <v>-9.9114178700644533E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4</v>
       </c>
@@ -6410,7 +6419,7 @@
         <v>-1.6215863794535414E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:6" dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4</v>
       </c>
@@ -6424,7 +6433,7 @@
         <v>-1.5908595484968372E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:6" dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4</v>
       </c>
@@ -6438,7 +6447,7 @@
         <v>-4.1842045507492591E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:6" dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>1.9374801252928738E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>4</v>
       </c>
@@ -6466,7 +6475,7 @@
         <v>4.816872203713761E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>6.900742974086474E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>4</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>6.6489140571125538E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4</v>
       </c>
@@ -6508,7 +6517,7 @@
         <v>3.0165743212429326E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>4</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>-3.8590728016507238E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:6" dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>-0.12369344854326059</v>
       </c>
     </row>
-    <row r="441" spans="1:6" dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4</v>
       </c>
@@ -6550,7 +6559,7 @@
         <v>-0.19772979612484559</v>
       </c>
     </row>
-    <row r="442" spans="1:6" dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>4</v>
       </c>
@@ -6564,7 +6573,7 @@
         <v>-0.23107729497348428</v>
       </c>
     </row>
-    <row r="443" spans="1:6" dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4</v>
       </c>
@@ -6578,7 +6587,7 @@
         <v>-0.20320793548648614</v>
       </c>
     </row>
-    <row r="444" spans="1:6" dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4</v>
       </c>
@@ -6592,7 +6601,7 @@
         <v>-0.11118473765183984</v>
       </c>
     </row>
-    <row r="445" spans="1:6" dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>4</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>2.8638287305950694E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>0.1865995944760101</v>
       </c>
     </row>
-    <row r="447" spans="1:6" dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4</v>
       </c>
@@ -6634,7 +6643,7 @@
         <v>0.33064716810348477</v>
       </c>
     </row>
-    <row r="448" spans="1:6" dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>0.42160483743728749</v>
       </c>
     </row>
-    <row r="449" spans="1:6" dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -6662,7 +6671,7 @@
         <v>0.43635983602325623</v>
       </c>
     </row>
-    <row r="450" spans="1:6" dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4</v>
       </c>
@@ -6676,7 +6685,7 @@
         <v>0.3841052875747949</v>
       </c>
     </row>
-    <row r="451" spans="1:6" dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4</v>
       </c>

--- a/excel/Semi-implicit_Euler_n=10.xlsx
+++ b/excel/Semi-implicit_Euler_n=10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>Inf</t>
   </si>
@@ -361,7 +361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -375,7 +375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -388,14 +388,14 @@
       <c r="D2">
         <v>3.5324501317711587E-2</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
+      <c r="E2">
+        <v>Inf</v>
       </c>
       <c r="F2">
         <v>-0.3979400086720376</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>-0.69897000433601875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>-1.3010299956639813</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>0.19159975329812307</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0.15482890892028345</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>9.5275866119243657E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3.1551282271195635E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>-2.4776286793116054E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>-4.6467747806217652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>-4.1073175676602958E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>-3.0790604034585001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>-2.5546831356019428E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>-2.9604928248155971E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>-3.8996037707223263E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -623,7 +623,7 @@
         <v>-4.5734655929953738E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -637,7 +637,7 @@
         <v>-4.454883555320166E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -651,7 +651,7 @@
         <v>-3.6769097631450753E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>-2.8794608100818353E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>-2.6821331093244805E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>-3.2109697335856335E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
         <v>-4.0302633080548267E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -721,7 +721,7 @@
         <v>-4.5029790746787035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>-4.2831029951996169E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-3.5635968140959484E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
         <v>-2.9071745370117585E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -777,7 +777,7 @@
         <v>-2.8070107850934112E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>-3.3185176892339463E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-4.0347126625568053E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>-4.409690991939208E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -833,7 +833,7 @@
         <v>-4.1745476745051691E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
         <v>-3.5303257331855131E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>-2.9800956852806482E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -875,7 +875,7 @@
         <v>-2.9371666411596276E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
         <v>-3.4113240655552213E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>-4.0100651039519319E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>-4.2504393906708349E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -931,7 +931,7 @@
         <v>-3.9419253135441923E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -945,7 +945,7 @@
         <v>-3.3463699736258179E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>-2.9862770026147456E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" dyDescent="0.2">
       <c r="A42">
         <v>0.39999999999925662</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" dyDescent="0.2">
       <c r="A43">
         <v>0.39999999999925662</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2.2427104443407703E-17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" dyDescent="0.2">
       <c r="A44">
         <v>0.39999999999925662</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>-6.9945846388593854E-17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" dyDescent="0.2">
       <c r="A45">
         <v>0.39999999999925662</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>-1.4479111535860764E-16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" dyDescent="0.2">
       <c r="A46">
         <v>0.39999999999925662</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>2.5376884143815416E-16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" dyDescent="0.2">
       <c r="A47">
         <v>0.39999999999925662</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>9.8683592733799718E-16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" dyDescent="0.2">
       <c r="A48">
         <v>0.39999999999925662</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>5.2571547874713911E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" dyDescent="0.2">
       <c r="A49">
         <v>0.39999999999925662</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>-2.6939593114095708E-15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" dyDescent="0.2">
       <c r="A50">
         <v>0.39999999999925662</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>-6.7728302051356841E-15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" dyDescent="0.2">
       <c r="A51">
         <v>0.39999999999925662</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-4.6073866592005604E-15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" dyDescent="0.2">
       <c r="A52">
         <v>0.39999999999925662</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1.09906776099127E-14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" dyDescent="0.2">
       <c r="A53">
         <v>0.39999999999925662</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>3.5415472104665002E-14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" dyDescent="0.2">
       <c r="A54">
         <v>0.39999999999925662</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>4.3865042488090769E-14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" dyDescent="0.2">
       <c r="A55">
         <v>0.39999999999925662</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>9.0679933952860018E-16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" dyDescent="0.2">
       <c r="A56">
         <v>0.39999999999925662</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>-1.0669942736224114E-13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" dyDescent="0.2">
       <c r="A57">
         <v>0.39999999999925662</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>-2.3030730099708859E-13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" dyDescent="0.2">
       <c r="A58">
         <v>0.39999999999925662</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>-2.491695421754684E-13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" dyDescent="0.2">
       <c r="A59">
         <v>0.39999999999925662</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>-2.3935018613689883E-14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" dyDescent="0.2">
       <c r="A60">
         <v>0.39999999999925662</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>4.8718435969152779E-13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" dyDescent="0.2">
       <c r="A61">
         <v>0.39999999999925662</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1.1066993577933463E-12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" dyDescent="0.2">
       <c r="A62">
         <v>0.39999999999925662</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1.4085592758874265E-12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" dyDescent="0.2">
       <c r="A63">
         <v>0.39999999999925662</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>8.6424165025977087E-13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" dyDescent="0.2">
       <c r="A64">
         <v>0.39999999999925662</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>-8.3893237067028282E-13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" dyDescent="0.2">
       <c r="A65">
         <v>0.39999999999925662</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>-3.435685829861348E-12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" dyDescent="0.2">
       <c r="A66">
         <v>0.39999999999925662</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>-5.8970635896989429E-12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" dyDescent="0.2">
       <c r="A67">
         <v>0.39999999999925662</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>-6.6238757599949407E-12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" dyDescent="0.2">
       <c r="A68">
         <v>0.39999999999925662</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>-4.0683690621440533E-12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" dyDescent="0.2">
       <c r="A69">
         <v>0.39999999999925662</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>2.4030400288299236E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" dyDescent="0.2">
       <c r="A70">
         <v>0.39999999999925662</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>1.1790797624352114E-11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" dyDescent="0.2">
       <c r="A71">
         <v>0.39999999999925662</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>2.1303536972343397E-11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" dyDescent="0.2">
       <c r="A72">
         <v>0.39999999999925662</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2.6986181910392909E-11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" dyDescent="0.2">
       <c r="A73">
         <v>0.39999999999925662</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>2.5012992030143532E-11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" dyDescent="0.2">
       <c r="A74">
         <v>0.39999999999925662</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1.3181745887208146E-11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" dyDescent="0.2">
       <c r="A75">
         <v>0.39999999999925662</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>-8.006621198479081E-12</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" dyDescent="0.2">
       <c r="A76">
         <v>0.39999999999925662</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>-3.5161261866010657E-11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" dyDescent="0.2">
       <c r="A77">
         <v>0.39999999999925662</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>-6.2809164164105004E-11</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" dyDescent="0.2">
       <c r="A78">
         <v>0.39999999999925662</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>-8.4864494363312085E-11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" dyDescent="0.2">
       <c r="A79">
         <v>0.39999999999925662</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>-9.6152931388206697E-11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" dyDescent="0.2">
       <c r="A80">
         <v>0.39999999999925662</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>-9.3407148847169276E-11</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" dyDescent="0.2">
       <c r="A81">
         <v>0.39999999999925662</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>-7.5445783905798725E-11</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" dyDescent="0.2">
       <c r="A82">
         <v>0.39999999999925662</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>-4.2650548731959234E-11</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" dyDescent="0.2">
       <c r="A83">
         <v>0.79999999999822768</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" dyDescent="0.2">
       <c r="A84">
         <v>0.79999999999822768</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>-1.3639604246444146E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" dyDescent="0.2">
       <c r="A85">
         <v>0.79999999999822768</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>-3.2078478765091137E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" dyDescent="0.2">
       <c r="A86">
         <v>0.79999999999822768</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>-3.4481420935659951E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" dyDescent="0.2">
       <c r="A87">
         <v>0.79999999999822768</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1.0379774155960114E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" dyDescent="0.2">
       <c r="A88">
         <v>0.79999999999822768</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>6.4364236842682998E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" dyDescent="0.2">
       <c r="A89">
         <v>0.79999999999822768</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0.1342268238106428</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" dyDescent="0.2">
       <c r="A90">
         <v>0.79999999999822768</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>0.19068961379332142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" dyDescent="0.2">
       <c r="A91">
         <v>0.79999999999822768</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0.21561923964259064</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" dyDescent="0.2">
       <c r="A92">
         <v>0.79999999999822768</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0.20211170436205589</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" dyDescent="0.2">
       <c r="A93">
         <v>0.79999999999822768</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0.15015771902342367</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" dyDescent="0.2">
       <c r="A94">
         <v>0.79999999999822768</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>7.6073058071505772E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" dyDescent="0.2">
       <c r="A95">
         <v>0.79999999999822768</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>5.252166522680235E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" dyDescent="0.2">
       <c r="A96">
         <v>0.79999999999822768</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-3.9564338597431137E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" dyDescent="0.2">
       <c r="A97">
         <v>0.79999999999822768</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>-4.7242478485930328E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" dyDescent="0.2">
       <c r="A98">
         <v>0.79999999999822768</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>-3.5289479852460004E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" dyDescent="0.2">
       <c r="A99">
         <v>0.79999999999822768</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>-2.7251504496121792E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" dyDescent="0.2">
       <c r="A100">
         <v>0.79999999999822768</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>-2.8131224551036116E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" dyDescent="0.2">
       <c r="A101">
         <v>0.79999999999822768</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>-3.6042175570112911E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" dyDescent="0.2">
       <c r="A102">
         <v>0.79999999999822768</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-4.4070034033950045E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" dyDescent="0.2">
       <c r="A103">
         <v>0.79999999999822768</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>-4.5823752176615162E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" dyDescent="0.2">
       <c r="A104">
         <v>0.79999999999822768</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>-4.018009172520054E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" dyDescent="0.2">
       <c r="A105">
         <v>0.79999999999822768</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>-3.1753690165640447E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" dyDescent="0.2">
       <c r="A106">
         <v>0.79999999999822768</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>-2.7052991169884244E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" dyDescent="0.2">
       <c r="A107">
         <v>0.79999999999822768</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>-2.9462829254823797E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" dyDescent="0.2">
       <c r="A108">
         <v>0.79999999999822768</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>-3.6852194110796543E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" dyDescent="0.2">
       <c r="A109">
         <v>0.79999999999822768</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>-4.343596562507035E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" dyDescent="0.2">
       <c r="A110">
         <v>0.79999999999822768</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>-4.4281149231654715E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" dyDescent="0.2">
       <c r="A111">
         <v>0.79999999999822768</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>-3.8972060234854333E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" dyDescent="0.2">
       <c r="A112">
         <v>0.79999999999822768</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>-3.1739291107858558E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" dyDescent="0.2">
       <c r="A113">
         <v>0.79999999999822768</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>-2.8102916540518885E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" dyDescent="0.2">
       <c r="A114">
         <v>0.79999999999822768</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>-3.067122739240824E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" dyDescent="0.2">
       <c r="A115">
         <v>0.79999999999822768</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>-3.7268267214753181E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" dyDescent="0.2">
       <c r="A116">
         <v>0.79999999999822768</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>-4.272234787489182E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" dyDescent="0.2">
       <c r="A117">
         <v>0.79999999999822768</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>-4.2875930092653558E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" dyDescent="0.2">
       <c r="A118">
         <v>0.79999999999822768</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>-3.775188182049849E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" dyDescent="0.2">
       <c r="A119">
         <v>0.79999999999822768</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>-3.1500651705180904E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" dyDescent="0.2">
       <c r="A120">
         <v>0.79999999999822768</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>-2.919175687303055E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" dyDescent="0.2">
       <c r="A121">
         <v>0.79999999999822768</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>-3.2868390430143446E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" dyDescent="0.2">
       <c r="A122">
         <v>0.79999999999822768</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>-3.9829275728594848E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" dyDescent="0.2">
       <c r="A123">
         <v>0.79999999999822768</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>-4.4468004646035286E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" dyDescent="0.2">
       <c r="A124">
         <v>1.1999999999970601</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" dyDescent="0.2">
       <c r="A125">
         <v>1.1999999999970601</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>3.6547209405202357E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" dyDescent="0.2">
       <c r="A126">
         <v>1.1999999999970601</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>6.2215916148563458E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" dyDescent="0.2">
       <c r="A127">
         <v>1.1999999999970601</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>-3.2031289049545743E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" dyDescent="0.2">
       <c r="A128">
         <v>1.1999999999970601</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>-1.9753135480270408E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" dyDescent="0.2">
       <c r="A129">
         <v>1.1999999999970601</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>-4.5359482639146187E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" dyDescent="0.2">
       <c r="A130">
         <v>1.1999999999970601</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>-6.0099085437472541E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" dyDescent="0.2">
       <c r="A131">
         <v>1.1999999999970601</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>-4.4147370563536639E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" dyDescent="0.2">
       <c r="A132">
         <v>1.1999999999970601</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1.4440073491941194E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" dyDescent="0.2">
       <c r="A133">
         <v>1.1999999999970601</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>9.7001516571390889E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" dyDescent="0.2">
       <c r="A134">
         <v>1.1999999999970601</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0.17421333472671463</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" dyDescent="0.2">
       <c r="A135">
         <v>1.1999999999970601</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0.22605808740922539</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" dyDescent="0.2">
       <c r="A136">
         <v>1.1999999999970601</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0.23609875520021753</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" dyDescent="0.2">
       <c r="A137">
         <v>1.1999999999970601</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0.20075574267546842</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" dyDescent="0.2">
       <c r="A138">
         <v>1.1999999999970601</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0.13238948052921645</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" dyDescent="0.2">
       <c r="A139">
         <v>1.1999999999970601</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>5.4272972897475125E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" dyDescent="0.2">
       <c r="A140">
         <v>1.1999999999970601</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>-9.5300415036958519E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" dyDescent="0.2">
       <c r="A141">
         <v>1.1999999999970601</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>-4.3461596481818354E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" dyDescent="0.2">
       <c r="A142">
         <v>1.1999999999970601</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>-4.3976447442297673E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" dyDescent="0.2">
       <c r="A143">
         <v>1.1999999999970601</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>-3.1887173230724097E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" dyDescent="0.2">
       <c r="A144">
         <v>1.1999999999970601</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-2.8596390254601367E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" dyDescent="0.2">
       <c r="A145">
         <v>1.1999999999970601</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>-3.4047309777534229E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" dyDescent="0.2">
       <c r="A146">
         <v>1.1999999999970601</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>-4.2398433104566258E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" dyDescent="0.2">
       <c r="A147">
         <v>1.1999999999970601</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>-4.6510156450055073E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" dyDescent="0.2">
       <c r="A148">
         <v>1.1999999999970601</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>-4.3143386755255309E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" dyDescent="0.2">
       <c r="A149">
         <v>1.1999999999970601</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>-3.499809531671505E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" dyDescent="0.2">
       <c r="A150">
         <v>1.1999999999970601</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>-2.8292966418301368E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" dyDescent="0.2">
       <c r="A151">
         <v>1.1999999999970601</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>-2.7914396600792535E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" dyDescent="0.2">
       <c r="A152">
         <v>1.1999999999970601</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>-3.3819537881836337E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" dyDescent="0.2">
       <c r="A153">
         <v>1.1999999999970601</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>-4.1270241855995149E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" dyDescent="0.2">
       <c r="A154">
         <v>1.1999999999970601</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>-4.4549578880656471E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" dyDescent="0.2">
       <c r="A155">
         <v>1.1999999999970601</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>-4.1276636591249138E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" dyDescent="0.2">
       <c r="A156">
         <v>1.1999999999970601</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>-3.4109436615718081E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" dyDescent="0.2">
       <c r="A157">
         <v>1.1999999999970601</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>-2.8652714174130955E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" dyDescent="0.2">
       <c r="A158">
         <v>1.1999999999970601</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>-2.9203341193100751E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" dyDescent="0.2">
       <c r="A159">
         <v>1.1999999999970601</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>-3.5502305768798204E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" dyDescent="0.2">
       <c r="A160">
         <v>1.1999999999970601</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>-4.2856080120881934E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" dyDescent="0.2">
       <c r="A161">
         <v>1.1999999999970601</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>-4.5507466263372987E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" dyDescent="0.2">
       <c r="A162">
         <v>1.1999999999970601</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>-4.0816252396322805E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" dyDescent="0.2">
       <c r="A163">
         <v>1.1999999999970601</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>-3.1295465943663836E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" dyDescent="0.2">
       <c r="A164">
         <v>1.1999999999970601</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-2.3121411659474789E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" dyDescent="0.2">
       <c r="A165">
         <v>1.599999999995892</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" dyDescent="0.2">
       <c r="A166">
         <v>1.599999999995892</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-9.7927951563459448E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" dyDescent="0.2">
       <c r="A167">
         <v>1.599999999995892</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>-1.0310098105428826E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" dyDescent="0.2">
       <c r="A168">
         <v>1.599999999995892</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>2.234176338123282E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" dyDescent="0.2">
       <c r="A169">
         <v>1.599999999995892</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>8.2223919204203483E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" dyDescent="0.2">
       <c r="A170">
         <v>1.599999999995892</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>1.1587463360995299E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" dyDescent="0.2">
       <c r="A171">
         <v>1.599999999995892</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>4.5937177430767119E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" dyDescent="0.2">
       <c r="A172">
         <v>1.599999999995892</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>-1.7044233959674707E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" dyDescent="0.2">
       <c r="A173">
         <v>1.599999999995892</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>-4.8574323665935483E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" dyDescent="0.2">
       <c r="A174">
         <v>1.599999999995892</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>-7.5216690032919822E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" dyDescent="0.2">
       <c r="A175">
         <v>1.599999999995892</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>-7.8031359740535849E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" dyDescent="0.2">
       <c r="A176">
         <v>1.599999999995892</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-4.140334289771537E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" dyDescent="0.2">
       <c r="A177">
         <v>1.599999999995892</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>3.88103778536419E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" dyDescent="0.2">
       <c r="A178">
         <v>1.599999999995892</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0.13609386178880264</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" dyDescent="0.2">
       <c r="A179">
         <v>1.599999999995892</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0.21396374316777414</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" dyDescent="0.2">
       <c r="A180">
         <v>1.599999999995892</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.25234179121445555</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" dyDescent="0.2">
       <c r="A181">
         <v>1.599999999995892</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0.24189522059102492</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" dyDescent="0.2">
       <c r="A182">
         <v>1.599999999995892</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.18906306699093983</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" dyDescent="0.2">
       <c r="A183">
         <v>1.599999999995892</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0.1133927126025715</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" dyDescent="0.2">
       <c r="A184">
         <v>1.599999999995892</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>3.8876782004445776E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" dyDescent="0.2">
       <c r="A185">
         <v>1.599999999995892</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>-1.5641482788004812E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" dyDescent="0.2">
       <c r="A186">
         <v>1.599999999995892</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>-4.1781737055751611E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" dyDescent="0.2">
       <c r="A187">
         <v>1.599999999995892</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>-4.0512929368916373E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" dyDescent="0.2">
       <c r="A188">
         <v>1.599999999995892</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-3.2197981814840348E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" dyDescent="0.2">
       <c r="A189">
         <v>1.599999999995892</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>-3.4022966872884641E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" dyDescent="0.2">
       <c r="A190">
         <v>1.599999999995892</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>-4.143214561626074E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" dyDescent="0.2">
       <c r="A191">
         <v>1.599999999995892</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>-4.6994323450956554E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" dyDescent="0.2">
       <c r="A192">
         <v>1.599999999995892</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>-4.5680486459576342E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" dyDescent="0.2">
       <c r="A193">
         <v>1.599999999995892</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>-3.8185893611058175E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" dyDescent="0.2">
       <c r="A194">
         <v>1.599999999995892</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>-3.000230940113513E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" dyDescent="0.2">
       <c r="A195">
         <v>1.599999999995892</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>-2.7108217228379528E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" dyDescent="0.2">
       <c r="A196">
         <v>1.599999999995892</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-3.1510547895444718E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" dyDescent="0.2">
       <c r="A197">
         <v>1.599999999995892</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>-3.9821868626015333E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" dyDescent="0.2">
       <c r="A198">
         <v>1.599999999995892</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>-4.5760961861534333E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" dyDescent="0.2">
       <c r="A199">
         <v>1.599999999995892</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>-4.4662861217828143E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" dyDescent="0.2">
       <c r="A200">
         <v>1.599999999995892</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>-3.6773581683793188E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" dyDescent="0.2">
       <c r="A201">
         <v>1.599999999995892</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>-2.7112564374893178E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" dyDescent="0.2">
       <c r="A202">
         <v>1.599999999995892</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>-2.2156660560507468E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" dyDescent="0.2">
       <c r="A203">
         <v>1.599999999995892</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>-2.571068523498854E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" dyDescent="0.2">
       <c r="A204">
         <v>1.599999999995892</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>-3.6653712587701559E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" dyDescent="0.2">
       <c r="A205">
         <v>1.599999999995892</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>-4.9741488808438539E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" dyDescent="0.2">
       <c r="A206">
         <v>1.999999999994768</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" dyDescent="0.2">
       <c r="A207">
         <v>1.999999999994768</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>2.6239712201814113E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" dyDescent="0.2">
       <c r="A208">
         <v>1.999999999994768</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1.0582653750588529E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" dyDescent="0.2">
       <c r="A209">
         <v>1.999999999994768</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>-1.0635954765549022E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" dyDescent="0.2">
       <c r="A210">
         <v>1.999999999994768</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>-2.4288150319653045E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" dyDescent="0.2">
       <c r="A211">
         <v>1.999999999994768</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>-1.612958833874648E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" dyDescent="0.2">
       <c r="A212">
         <v>1.999999999994768</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>3.4661581643578537E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" dyDescent="0.2">
       <c r="A213">
         <v>1.999999999994768</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1.174814579478977E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" dyDescent="0.2">
       <c r="A214">
         <v>1.999999999994768</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1.7596422439196822E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" dyDescent="0.2">
       <c r="A215">
         <v>1.999999999994768</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>1.2785040698361949E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" dyDescent="0.2">
       <c r="A216">
         <v>1.999999999994768</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-8.1962175597802001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" dyDescent="0.2">
       <c r="A217">
         <v>1.999999999994768</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>-4.3211967345184704E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" dyDescent="0.2">
       <c r="A218">
         <v>1.999999999994768</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>-8.0256576446462308E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" dyDescent="0.2">
       <c r="A219">
         <v>1.999999999994768</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>-0.10032875439275532</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" dyDescent="0.2">
       <c r="A220">
         <v>1.999999999994768</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>-8.4985294268303799E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" dyDescent="0.2">
       <c r="A221">
         <v>1.999999999994768</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>-2.5164127497319125E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" dyDescent="0.2">
       <c r="A222">
         <v>1.999999999994768</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>7.3477050449997638E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" dyDescent="0.2">
       <c r="A223">
         <v>1.999999999994768</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0.17643785440061124</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" dyDescent="0.2">
       <c r="A224">
         <v>1.999999999994768</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0.24540355396232449</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" dyDescent="0.2">
       <c r="A225">
         <v>1.999999999994768</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0.26554802307280245</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" dyDescent="0.2">
       <c r="A226">
         <v>1.999999999994768</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>0.23678999627108277</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" dyDescent="0.2">
       <c r="A227">
         <v>1.999999999994768</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.17360897885801113</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" dyDescent="0.2">
       <c r="A228">
         <v>1.999999999994768</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>9.8215592169876575E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" dyDescent="0.2">
       <c r="A229">
         <v>1.999999999994768</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>3.1179607771231965E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" dyDescent="0.2">
       <c r="A230">
         <v>1.999999999994768</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>-1.5265677839163994E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" dyDescent="0.2">
       <c r="A231">
         <v>1.999999999994768</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>-3.8128134976524786E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" dyDescent="0.2">
       <c r="A232">
         <v>1.999999999994768</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>-3.9495469049991683E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" dyDescent="0.2">
       <c r="A233">
         <v>1.999999999994768</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>-3.6636029332934528E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" dyDescent="0.2">
       <c r="A234">
         <v>1.999999999994768</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>-4.2161946826283159E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" dyDescent="0.2">
       <c r="A235">
         <v>1.999999999994768</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>-4.8751903629386972E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" dyDescent="0.2">
       <c r="A236">
         <v>1.999999999994768</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>-4.961183173955086E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" dyDescent="0.2">
       <c r="A237">
         <v>1.999999999994768</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>-4.2817713865880958E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" dyDescent="0.2">
       <c r="A238">
         <v>1.999999999994768</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>-3.2184363924199544E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" dyDescent="0.2">
       <c r="A239">
         <v>1.999999999994768</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>-2.432322016170918E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" dyDescent="0.2">
       <c r="A240">
         <v>1.999999999994768</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>-2.4148756435267482E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" dyDescent="0.2">
       <c r="A241">
         <v>1.999999999994768</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>-3.190056141060138E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" dyDescent="0.2">
       <c r="A242">
         <v>1.999999999994768</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>-4.33803966384253E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" dyDescent="0.2">
       <c r="A243">
         <v>1.999999999994768</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>-5.2746421601425397E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" dyDescent="0.2">
       <c r="A244">
         <v>1.999999999994768</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>-5.5643045147536707E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" dyDescent="0.2">
       <c r="A245">
         <v>1.999999999994768</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>-5.0702453219133581E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" dyDescent="0.2">
       <c r="A246">
         <v>1.999999999994768</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>-3.9095068895456442E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" dyDescent="0.2">
       <c r="A247">
         <v>2.3999999999957802</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" dyDescent="0.2">
       <c r="A248">
         <v>2.3999999999957802</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>-7.0308972438019735E-5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" dyDescent="0.2">
       <c r="A249">
         <v>2.3999999999957802</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1.7310135975045834E-5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" dyDescent="0.2">
       <c r="A250">
         <v>2.3999999999957802</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>3.7991123791294241E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" dyDescent="0.2">
       <c r="A251">
         <v>2.3999999999957802</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>5.8065252005854383E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" dyDescent="0.2">
       <c r="A252">
         <v>2.3999999999957802</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>-1.9701213089498755E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" dyDescent="0.2">
       <c r="A253">
         <v>2.3999999999957802</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>-2.1877645871976044E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" dyDescent="0.2">
       <c r="A254">
         <v>2.3999999999957802</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>-4.0431796772891632E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" dyDescent="0.2">
       <c r="A255">
         <v>2.3999999999957802</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>-2.9905022798224607E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" dyDescent="0.2">
       <c r="A256">
         <v>2.3999999999957802</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>3.2789587600912493E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" dyDescent="0.2">
       <c r="A257">
         <v>2.3999999999957802</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1.3834799458573476E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" dyDescent="0.2">
       <c r="A258">
         <v>2.3999999999957802</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>2.3159372779665496E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" dyDescent="0.2">
       <c r="A259">
         <v>2.3999999999957802</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>2.2581166170481063E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" dyDescent="0.2">
       <c r="A260">
         <v>2.3999999999957802</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>4.6785383734911853E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" dyDescent="0.2">
       <c r="A261">
         <v>2.3999999999957802</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>-3.1228014599329425E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" dyDescent="0.2">
       <c r="A262">
         <v>2.3999999999957802</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>-7.5699441452548755E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" dyDescent="0.2">
       <c r="A263">
         <v>2.3999999999957802</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>-0.11062224832747178</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" dyDescent="0.2">
       <c r="A264">
         <v>2.3999999999957802</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>-0.11578362954668658</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" dyDescent="0.2">
       <c r="A265">
         <v>2.3999999999957802</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>-7.7826740220616433E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" dyDescent="0.2">
       <c r="A266">
         <v>2.3999999999957802</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>3.0015866516474032E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" dyDescent="0.2">
       <c r="A267">
         <v>2.3999999999957802</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0.11216115842079442</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" dyDescent="0.2">
       <c r="A268">
         <v>2.3999999999957802</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.21132710387745246</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" dyDescent="0.2">
       <c r="A269">
         <v>2.3999999999957802</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0.26530624289375837</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" dyDescent="0.2">
       <c r="A270">
         <v>2.3999999999957802</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0.26735539071766168</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" dyDescent="0.2">
       <c r="A271">
         <v>2.3999999999957802</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0.22580544239856568</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" dyDescent="0.2">
       <c r="A272">
         <v>2.3999999999957802</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0.15941969521561733</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" dyDescent="0.2">
       <c r="A273">
         <v>2.3999999999957802</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>8.8899633243084197E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" dyDescent="0.2">
       <c r="A274">
         <v>2.3999999999957802</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>2.939778430477058E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" dyDescent="0.2">
       <c r="A275">
         <v>2.3999999999957802</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>-1.2262452183471551E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" dyDescent="0.2">
       <c r="A276">
         <v>2.3999999999957802</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>-3.524144280327457E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" dyDescent="0.2">
       <c r="A277">
         <v>2.3999999999957802</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>-3.9962344205812128E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" dyDescent="0.2">
       <c r="A278">
         <v>2.3999999999957802</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>-4.0366398711042084E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" dyDescent="0.2">
       <c r="A279">
         <v>2.3999999999957802</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>-4.70589610028046E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" dyDescent="0.2">
       <c r="A280">
         <v>2.3999999999957802</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>-5.3476964240560476E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" dyDescent="0.2">
       <c r="A281">
         <v>2.3999999999957802</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>-5.5157248380458879E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" dyDescent="0.2">
       <c r="A282">
         <v>2.3999999999957802</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>-5.1244610376601218E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" dyDescent="0.2">
       <c r="A283">
         <v>2.3999999999957802</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>-4.3272990102396935E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" dyDescent="0.2">
       <c r="A284">
         <v>2.3999999999957802</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>-3.2910782843103337E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" dyDescent="0.2">
       <c r="A285">
         <v>2.3999999999957802</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>-2.1006727837675432E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" dyDescent="0.2">
       <c r="A286">
         <v>2.3999999999957802</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>-8.8492780935314208E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" dyDescent="0.2">
       <c r="A287">
         <v>2.3999999999957802</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>-2.5103065345177811E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" dyDescent="0.2">
       <c r="A288">
         <v>2.7999999999968348</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" dyDescent="0.2">
       <c r="A289">
         <v>2.7999999999968348</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>1.8838767734588198E-5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" dyDescent="0.2">
       <c r="A290">
         <v>2.7999999999968348</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>-1.6871893419664487E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" dyDescent="0.2">
       <c r="A291">
         <v>2.7999999999968348</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>-1.1928370957605896E-4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" dyDescent="0.2">
       <c r="A292">
         <v>2.7999999999968348</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>-1.0697182844945375E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" dyDescent="0.2">
       <c r="A293">
         <v>2.7999999999968348</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>2.5147856887536768E-4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" dyDescent="0.2">
       <c r="A294">
         <v>2.7999999999968348</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>8.3622338626000963E-4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" dyDescent="0.2">
       <c r="A295">
         <v>2.7999999999968348</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>9.3096462849431253E-4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" dyDescent="0.2">
       <c r="A296">
         <v>2.7999999999968348</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>-3.8590192677088141E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" dyDescent="0.2">
       <c r="A297">
         <v>2.7999999999968348</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>-3.2134227645596015E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" dyDescent="0.2">
       <c r="A298">
         <v>2.7999999999968348</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>-5.8864480642349237E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" dyDescent="0.2">
       <c r="A299">
         <v>2.7999999999968348</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>-5.2570115300758311E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" dyDescent="0.2">
       <c r="A300">
         <v>2.7999999999968348</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1.4670073780207226E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" dyDescent="0.2">
       <c r="A301">
         <v>2.7999999999968348</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>1.4034316853762944E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" dyDescent="0.2">
       <c r="A302">
         <v>2.7999999999968348</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>2.7332371104811105E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" dyDescent="0.2">
       <c r="A303">
         <v>2.7999999999968348</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>3.221337899413762E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" dyDescent="0.2">
       <c r="A304">
         <v>2.7999999999968348</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1.9497946194775052E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" dyDescent="0.2">
       <c r="A305">
         <v>2.7999999999968348</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>-1.4329699971924313E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" dyDescent="0.2">
       <c r="A306">
         <v>2.7999999999968348</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>-6.2798235164883476E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" dyDescent="0.2">
       <c r="A307">
         <v>2.7999999999968348</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>-0.10949498991805631</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" dyDescent="0.2">
       <c r="A308">
         <v>2.7999999999968348</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>-0.13345546167239802</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" dyDescent="0.2">
       <c r="A309">
         <v>2.7999999999968348</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>-0.11785408597649676</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" dyDescent="0.2">
       <c r="A310">
         <v>2.7999999999968348</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>-5.7732104360527878E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" dyDescent="0.2">
       <c r="A311">
         <v>2.7999999999968348</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>3.7410430854833435E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" dyDescent="0.2">
       <c r="A312">
         <v>2.7999999999968348</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0.14773892941388753</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" dyDescent="0.2">
       <c r="A313">
         <v>2.7999999999968348</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0.23624122310590637</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" dyDescent="0.2">
       <c r="A314">
         <v>2.7999999999968348</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0.274513289528869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" dyDescent="0.2">
       <c r="A315">
         <v>2.7999999999968348</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0.26385264715956996</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" dyDescent="0.2">
       <c r="A316">
         <v>2.7999999999968348</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0.21719324954420077</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" dyDescent="0.2">
       <c r="A317">
         <v>2.7999999999968348</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.1522501200627322</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" dyDescent="0.2">
       <c r="A318">
         <v>2.7999999999968348</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>8.463926432646246E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" dyDescent="0.2">
       <c r="A319">
         <v>2.7999999999968348</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>2.4679250452896762E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" dyDescent="0.2">
       <c r="A320">
         <v>2.7999999999968348</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>-2.1383158315351092E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" dyDescent="0.2">
       <c r="A321">
         <v>2.7999999999968348</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>-4.8154447664270683E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" dyDescent="0.2">
       <c r="A322">
         <v>2.7999999999968348</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>-4.9470144316575038E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" dyDescent="0.2">
       <c r="A323">
         <v>2.7999999999968348</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>-3.5891217612491033E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" dyDescent="0.2">
       <c r="A324">
         <v>2.7999999999968348</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>-2.1808649088515764E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" dyDescent="0.2">
       <c r="A325">
         <v>2.7999999999968348</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>-1.1393388340530497E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" dyDescent="0.2">
       <c r="A326">
         <v>2.7999999999968348</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>-1.2984261589869317E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" dyDescent="0.2">
       <c r="A327">
         <v>2.7999999999968348</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>-3.3406123416832023E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" dyDescent="0.2">
       <c r="A328">
         <v>2.7999999999968348</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>-7.1161726091110045E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" dyDescent="0.2">
       <c r="A329">
         <v>3.1999999999978899</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" dyDescent="0.2">
       <c r="A330">
         <v>3.1999999999978899</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>-5.0460985003365227E-6</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" dyDescent="0.2">
       <c r="A331">
         <v>3.1999999999978899</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>7.7902103010056086E-6</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" dyDescent="0.2">
       <c r="A332">
         <v>3.1999999999978899</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>3.4515695504251675E-5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" dyDescent="0.2">
       <c r="A333">
         <v>3.1999999999978899</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>9.0790935800217891E-6</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" dyDescent="0.2">
       <c r="A334">
         <v>3.1999999999978899</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>-1.2112741358798028E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" dyDescent="0.2">
       <c r="A335">
         <v>3.1999999999978899</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>-2.5133505148229227E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" dyDescent="0.2">
       <c r="A336">
         <v>3.1999999999978899</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>-9.8695659178352923E-5</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" dyDescent="0.2">
       <c r="A337">
         <v>3.1999999999978899</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>5.408557130309428E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" dyDescent="0.2">
       <c r="A338">
         <v>3.1999999999978899</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>1.3770495554221241E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" dyDescent="0.2">
       <c r="A339">
         <v>3.1999999999978899</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1.4649517785072434E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" dyDescent="0.2">
       <c r="A340">
         <v>3.1999999999978899</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>-2.734831943258108E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" dyDescent="0.2">
       <c r="A341">
         <v>3.1999999999978899</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>-3.9625004906376753E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" dyDescent="0.2">
       <c r="A342">
         <v>3.1999999999978899</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>-7.818514773331826E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" dyDescent="0.2">
       <c r="A343">
         <v>3.1999999999978899</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>-8.2968117716218665E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" dyDescent="0.2">
       <c r="A344">
         <v>3.1999999999978899</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>-1.8631376601604228E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" dyDescent="0.2">
       <c r="A345">
         <v>3.1999999999978899</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1.2161677815165656E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" dyDescent="0.2">
       <c r="A346">
         <v>3.1999999999978899</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>2.9327747516199959E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" dyDescent="0.2">
       <c r="A347">
         <v>3.1999999999978899</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>4.026542199461098E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" dyDescent="0.2">
       <c r="A348">
         <v>3.1999999999978899</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>3.4257719206423808E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" dyDescent="0.2">
       <c r="A349">
         <v>3.1999999999978899</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>5.0671216608534145E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" dyDescent="0.2">
       <c r="A350">
         <v>3.1999999999978899</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>-4.3904232818169006E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" dyDescent="0.2">
       <c r="A351">
         <v>3.1999999999978899</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>-9.8388254713217854E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" dyDescent="0.2">
       <c r="A352">
         <v>3.1999999999978899</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>-0.1375419255172019</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" dyDescent="0.2">
       <c r="A353">
         <v>3.1999999999978899</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>-0.14232805801435586</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" dyDescent="0.2">
       <c r="A354">
         <v>3.1999999999978899</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>-0.10393898016450864</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" dyDescent="0.2">
       <c r="A355">
         <v>3.1999999999978899</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>-2.7722073672544811E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" dyDescent="0.2">
       <c r="A356">
         <v>3.1999999999978899</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>6.9720438008276112E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" dyDescent="0.2">
       <c r="A357">
         <v>3.1999999999978899</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0.16877176233509056</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" dyDescent="0.2">
       <c r="A358">
         <v>3.1999999999978899</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.24016286301642203</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" dyDescent="0.2">
       <c r="A359">
         <v>3.1999999999978899</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>0.26662472203248772</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" dyDescent="0.2">
       <c r="A360">
         <v>3.1999999999978899</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>0.25759526952803546</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" dyDescent="0.2">
       <c r="A361">
         <v>3.1999999999978899</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>0.22603973699276056</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" dyDescent="0.2">
       <c r="A362">
         <v>3.1999999999978899</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0.18074396209971078</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" dyDescent="0.2">
       <c r="A363">
         <v>3.1999999999978899</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>0.12358080330957716</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" dyDescent="0.2">
       <c r="A364">
         <v>3.1999999999978899</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>5.3472900348081942E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" dyDescent="0.2">
       <c r="A365">
         <v>3.1999999999978899</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>-2.5844599441234184E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" dyDescent="0.2">
       <c r="A366">
         <v>3.1999999999978899</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>-0.10003531483044248</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" dyDescent="0.2">
       <c r="A367">
         <v>3.1999999999978899</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>-0.14526189604229289</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" dyDescent="0.2">
       <c r="A368">
         <v>3.1999999999978899</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>-0.1524512607181272</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" dyDescent="0.2">
       <c r="A369">
         <v>3.1999999999978899</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>-0.12217956919219974</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" dyDescent="0.2">
       <c r="A370">
         <v>3.5999999999989449</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" dyDescent="0.2">
       <c r="A371">
         <v>3.5999999999989449</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>1.3456262667579019E-6</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" dyDescent="0.2">
       <c r="A372">
         <v>3.5999999999989449</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>-2.9352261586606362E-6</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" dyDescent="0.2">
       <c r="A373">
         <v>3.5999999999989449</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>-9.3419567571092827E-6</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" dyDescent="0.2">
       <c r="A374">
         <v>3.5999999999989449</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>4.0545673686101902E-6</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" dyDescent="0.2">
       <c r="A375">
         <v>3.5999999999989449</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>4.4988903181109163E-5</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" dyDescent="0.2">
       <c r="A376">
         <v>3.5999999999989449</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>6.1654204050126015E-5</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" dyDescent="0.2">
       <c r="A377">
         <v>3.5999999999989449</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>-3.785965574827288E-5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" dyDescent="0.2">
       <c r="A378">
         <v>3.5999999999989449</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>-2.6447752850722789E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" dyDescent="0.2">
       <c r="A379">
         <v>3.5999999999989449</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>-4.1654507996927213E-4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" dyDescent="0.2">
       <c r="A380">
         <v>3.5999999999989449</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>-1.2396680057276182E-4</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" dyDescent="0.2">
       <c r="A381">
         <v>3.5999999999989449</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>8.1887902049639441E-4</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" dyDescent="0.2">
       <c r="A382">
         <v>3.5999999999989449</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>2.0102844662030959E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" dyDescent="0.2">
       <c r="A383">
         <v>3.5999999999989449</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>2.3022470993329172E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" dyDescent="0.2">
       <c r="A384">
         <v>3.5999999999989449</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>3.4269338188694636E-4</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" dyDescent="0.2">
       <c r="A385">
         <v>3.5999999999989449</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>-4.2469404017026931E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" dyDescent="0.2">
       <c r="A386">
         <v>3.5999999999989449</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>-9.7199312348410574E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" dyDescent="0.2">
       <c r="A387">
         <v>3.5999999999989449</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>-1.210022835484576E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" dyDescent="0.2">
       <c r="A388">
         <v>3.5999999999989449</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>-6.8330893176180209E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" dyDescent="0.2">
       <c r="A389">
         <v>3.5999999999989449</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>8.1329651696168057E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" dyDescent="0.2">
       <c r="A390">
         <v>3.5999999999989449</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>2.9390267002406673E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" dyDescent="0.2">
       <c r="A391">
         <v>3.5999999999989449</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>4.7383959872100687E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" dyDescent="0.2">
       <c r="A392">
         <v>3.5999999999989449</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>4.9409593810276736E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" dyDescent="0.2">
       <c r="A393">
         <v>3.5999999999989449</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>2.5763519362997658E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" dyDescent="0.2">
       <c r="A394">
         <v>3.5999999999989449</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>-2.3691996186375408E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" dyDescent="0.2">
       <c r="A395">
         <v>3.5999999999989449</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>-8.6337699515274022E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" dyDescent="0.2">
       <c r="A396">
         <v>3.5999999999989449</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>-0.13968762497950607</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" dyDescent="0.2">
       <c r="A397">
         <v>3.5999999999989449</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>-0.16006683248847114</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" dyDescent="0.2">
       <c r="A398">
         <v>3.5999999999989449</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>-0.13336311411055277</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" dyDescent="0.2">
       <c r="A399">
         <v>3.5999999999989449</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>-6.2342520316036418E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" dyDescent="0.2">
       <c r="A400">
         <v>3.5999999999989449</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>3.380422299819115E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" dyDescent="0.2">
       <c r="A401">
         <v>3.5999999999989449</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>0.12816950211551587</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" dyDescent="0.2">
       <c r="A402">
         <v>3.5999999999989449</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0.19903888243179507</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" dyDescent="0.2">
       <c r="A403">
         <v>3.5999999999989449</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0.22475924716919204</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" dyDescent="0.2">
       <c r="A404">
         <v>3.5999999999989449</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0.20316238303802572</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" dyDescent="0.2">
       <c r="A405">
         <v>3.5999999999989449</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>0.16130881866240354</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" dyDescent="0.2">
       <c r="A406">
         <v>3.5999999999989449</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0.12654136879824129</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" dyDescent="0.2">
       <c r="A407">
         <v>3.5999999999989449</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0.11413594322238485</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" dyDescent="0.2">
       <c r="A408">
         <v>3.5999999999989449</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0.12228680517926138</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" dyDescent="0.2">
       <c r="A409">
         <v>3.5999999999989449</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0.13651989550990484</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" dyDescent="0.2">
       <c r="A410">
         <v>3.5999999999989449</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0.14035854272666748</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" dyDescent="0.2">
       <c r="A411">
         <v>4</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" dyDescent="0.2">
       <c r="A412">
         <v>4</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>-3.3640656669508235E-7</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" dyDescent="0.2">
       <c r="A413">
         <v>4</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>9.230352334476314E-7</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>2.2657000181934319E-6</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" dyDescent="0.2">
       <c r="A415">
         <v>4</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>-2.643076077618127E-6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" dyDescent="0.2">
       <c r="A416">
         <v>4</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>-1.3560612639828413E-5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" dyDescent="0.2">
       <c r="A417">
         <v>4</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>-1.1650565922615953E-5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" dyDescent="0.2">
       <c r="A418">
         <v>4</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>2.7268833702337178E-5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" dyDescent="0.2">
       <c r="A419">
         <v>4</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>8.9301987521848465E-5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" dyDescent="0.2">
       <c r="A420">
         <v>4</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>9.1158670057255975E-5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" dyDescent="0.2">
       <c r="A421">
         <v>4</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>-7.4289457008323877E-5</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" dyDescent="0.2">
       <c r="A422">
         <v>4</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>-3.9999708385788946E-4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" dyDescent="0.2">
       <c r="A423">
         <v>4</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>-6.3607525546543683E-4</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" dyDescent="0.2">
       <c r="A424">
         <v>4</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>-3.3956444480711339E-4</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" dyDescent="0.2">
       <c r="A425">
         <v>4</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>7.9932945247372569E-4</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" dyDescent="0.2">
       <c r="A426">
         <v>4</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>2.4779965984981786E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" dyDescent="0.2">
       <c r="A427">
         <v>4</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>3.51472798198855E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2.2080308872302035E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>-2.5589274465242545E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" dyDescent="0.2">
       <c r="A430">
         <v>4</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>-9.9114178700644533E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" dyDescent="0.2">
       <c r="A431">
         <v>4</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>-1.6215863794535414E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" dyDescent="0.2">
       <c r="A432">
         <v>4</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>-1.5908595484968372E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" dyDescent="0.2">
       <c r="A433">
         <v>4</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>-4.1842045507492591E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" dyDescent="0.2">
       <c r="A434">
         <v>4</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1.9374801252928738E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" dyDescent="0.2">
       <c r="A435">
         <v>4</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>4.816872203713761E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" dyDescent="0.2">
       <c r="A436">
         <v>4</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>6.900742974086474E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" dyDescent="0.2">
       <c r="A437">
         <v>4</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>6.6489140571125538E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" dyDescent="0.2">
       <c r="A438">
         <v>4</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>3.0165743212429326E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" dyDescent="0.2">
       <c r="A439">
         <v>4</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>-3.8590728016507238E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" dyDescent="0.2">
       <c r="A440">
         <v>4</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>-0.12369344854326059</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" dyDescent="0.2">
       <c r="A441">
         <v>4</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>-0.19772979612484559</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" dyDescent="0.2">
       <c r="A442">
         <v>4</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>-0.23107729497348428</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" dyDescent="0.2">
       <c r="A443">
         <v>4</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>-0.20320793548648614</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" dyDescent="0.2">
       <c r="A444">
         <v>4</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>-0.11118473765183984</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" dyDescent="0.2">
       <c r="A445">
         <v>4</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>2.8638287305950694E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" dyDescent="0.2">
       <c r="A446">
         <v>4</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0.1865995944760101</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" dyDescent="0.2">
       <c r="A447">
         <v>4</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.33064716810348477</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0.42160483743728749</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>0.43635983602325623</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" dyDescent="0.2">
       <c r="A450">
         <v>4</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0.3841052875747949</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" dyDescent="0.2">
       <c r="A451">
         <v>4</v>
       </c>
